--- a/visa_analytics_datecol.xlsx
+++ b/visa_analytics_datecol.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\visa_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CBBFC7-FECA-4608-A4AE-544592527C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF261E8F-41AC-476F-9CD1-5B59A7D3900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2281ABCD-5CE3-E343-87C9-5E404ED5EA5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2281ABCD-5CE3-E343-87C9-5E404ED5EA5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clients" sheetId="2" r:id="rId1"/>
+    <sheet name="Données normalisées" sheetId="2" r:id="rId1"/>
     <sheet name="Visa" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -708,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EFE51B-BD83-49B8-A8D2-7C15A277D8C0}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -866,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A0EA3-F601-4289-B93C-BCC51B44EEC6}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
